--- a/icv_mensual.xlsx
+++ b/icv_mensual.xlsx
@@ -44,6 +44,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -81,10 +84,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B229"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +415,7 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,15 +423,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>37257</v>
       </c>
       <c r="B2" s="1">
         <v>0.10683400556087541</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>37288</v>
       </c>
@@ -435,7 +440,7 @@
         <v>0.10637219830233684</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>37316</v>
       </c>
@@ -443,7 +448,7 @@
         <v>0.10588935368670015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>37347</v>
       </c>
@@ -451,7 +456,7 @@
         <v>0.10434767545209285</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>37377</v>
       </c>
@@ -459,7 +464,7 @@
         <v>0.10436962613464956</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>37408</v>
       </c>
@@ -467,7 +472,7 @@
         <v>0.10089401386964508</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>37438</v>
       </c>
@@ -475,7 +480,7 @@
         <v>9.7748999229578429E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>37469</v>
       </c>
@@ -483,7 +488,7 @@
         <v>9.6095695869748407E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>37500</v>
       </c>
@@ -491,7 +496,7 @@
         <v>9.4151554386314951E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>37530</v>
       </c>
@@ -499,7 +504,7 @@
         <v>9.2814271248960162E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>37561</v>
       </c>
@@ -507,7 +512,7 @@
         <v>9.3094610302230749E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>37591</v>
       </c>
@@ -515,7 +520,7 @@
         <v>8.7190787246280765E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>37622</v>
       </c>
@@ -523,7 +528,7 @@
         <v>8.716394750468362E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>37653</v>
       </c>
@@ -531,7 +536,7 @@
         <v>8.7117105799528333E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>37681</v>
       </c>
@@ -2250,24 +2255,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101007417CAAD3D4CC5408E07FA223EE9CF92" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="de111c8a5aec253deda3dfe899a9f548">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="37337b4d-9f4b-4af9-a987-3c7751e30e6b" xmlns:ns4="95780af1-cc00-46be-b649-c4555d42f645" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="59651f371eb86c92c606e999117fff74" ns1:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2487,25 +2474,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F21A6B6-D038-4644-86C1-58C99F17F64D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2044236A-2E11-4649-83B9-DF6060F98BA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DE1519-9547-407D-A461-E077DCAC3E39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2523,4 +2510,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2044236A-2E11-4649-83B9-DF6060F98BA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F21A6B6-D038-4644-86C1-58C99F17F64D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>